--- a/data/trans_camb/P3A_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,3; 13,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,79; 16,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 14,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 4,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 6,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,89; 12,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 8,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 9,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 12,41</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,06%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,79; 100,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,61; 119,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,45; 103,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,64; 43,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,36; 63,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,28; 135,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,37; 64,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,26; 79,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,67; 100,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 12,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,36; 15,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,2; 11,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 6,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,03; 12,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,53; 16,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 8,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,71; 12,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 12,51</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,36%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,0; 69,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,16; 90,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,16; 57,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,42; 75,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,58; 147,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,41; 196,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,97; 57,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,59; 93,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 86,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 6,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 12,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 13,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 6,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 10,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 10,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 5,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,25; 10,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 10,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,54%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; 30,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,47; 59,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,29; 61,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,22; 48,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,91; 87,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,61; 80,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,7; 30,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,5; 63,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,05; 54,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 10,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,08; 17,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 9,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 7,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 10,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 7,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,36; 7,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 12,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 7,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,82%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,76; 48,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,55; 81,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,86; 42,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 63,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,87; 89,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 63,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,48; 46,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,99; 74,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,25; 42,87</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,29; 8,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,26; 13,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 8,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 4,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 8,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 9,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 6,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,44; 10,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,36; 9,03</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,62%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,95%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,46; 44,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,03; 68,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 43,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 42,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,28; 75,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,08; 86,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,96; 39,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,92; 67,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,17; 57,0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P3A_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 13,8</t>
+          <t>5,53; 14,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 16,37</t>
+          <t>7,29; 16,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 14,34</t>
+          <t>5,36; 14,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,14</t>
+          <t>-2,89; 4,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,05</t>
+          <t>-1,45; 5,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,88</t>
+          <t>3,92; 12,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,01</t>
+          <t>2,58; 8,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,83</t>
+          <t>4,16; 9,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 12,41</t>
+          <t>6,05; 12,46</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,79; 100,11</t>
+          <t>31,97; 106,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,61; 119,84</t>
+          <t>40,85; 120,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,45; 103,62</t>
+          <t>29,75; 105,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 43,76</t>
+          <t>-23,79; 44,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 63,35</t>
+          <t>-11,67; 54,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,28; 135,5</t>
+          <t>35,35; 130,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 64,63</t>
+          <t>17,25; 65,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,26; 79,67</t>
+          <t>27,42; 78,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,67; 100,05</t>
+          <t>40,74; 103,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,21</t>
+          <t>4,23; 12,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,88</t>
+          <t>7,6; 15,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 11,02</t>
+          <t>-8,42; 10,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,65</t>
+          <t>0,61; 6,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,81</t>
+          <t>6,1; 12,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 16,89</t>
+          <t>10,57; 16,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,18</t>
+          <t>3,09; 8,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 12,89</t>
+          <t>7,84; 12,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 12,51</t>
+          <t>0,38; 12,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 69,85</t>
+          <t>18,49; 66,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,16; 90,15</t>
+          <t>35,55; 88,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 57,57</t>
+          <t>-38,78; 55,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 75,39</t>
+          <t>4,46; 72,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,58; 147,59</t>
+          <t>51,04; 136,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,41; 196,3</t>
+          <t>87,4; 194,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 57,68</t>
+          <t>19,13; 58,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,59; 93,77</t>
+          <t>47,16; 93,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 86,73</t>
+          <t>2,61; 85,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,63</t>
+          <t>-2,83; 6,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 12,93</t>
+          <t>3,42; 13,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 13,5</t>
+          <t>2,56; 13,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 6,08</t>
+          <t>-1,84; 5,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 10,76</t>
+          <t>2,61; 10,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 10,8</t>
+          <t>-5,17; 10,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,34</t>
+          <t>-0,69; 5,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 10,97</t>
+          <t>4,39; 10,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 10,02</t>
+          <t>-4,15; 9,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 30,67</t>
+          <t>-10,66; 31,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,47; 59,34</t>
+          <t>12,27; 61,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,29; 61,66</t>
+          <t>10,38; 60,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 48,34</t>
+          <t>-12,4; 46,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 87,8</t>
+          <t>15,0; 86,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 80,6</t>
+          <t>-34,02; 82,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 30,2</t>
+          <t>-3,68; 30,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,5; 63,27</t>
+          <t>20,73; 60,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 54,63</t>
+          <t>-20,69; 51,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 10,41</t>
+          <t>2,16; 10,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,08; 17,52</t>
+          <t>9,23; 17,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,04</t>
+          <t>0,63; 9,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,23</t>
+          <t>1,1; 7,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 10,15</t>
+          <t>3,37; 9,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,35</t>
+          <t>0,26; 7,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,59</t>
+          <t>2,51; 7,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,16</t>
+          <t>7,18; 12,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,11</t>
+          <t>1,35; 7,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,76; 48,78</t>
+          <t>9,25; 50,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,55; 81,7</t>
+          <t>35,64; 79,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 42,54</t>
+          <t>2,35; 42,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 63,27</t>
+          <t>6,63; 63,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,87; 89,66</t>
+          <t>23,02; 84,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,67; 63,13</t>
+          <t>2,61; 64,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,48; 46,59</t>
+          <t>12,76; 44,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,99; 74,45</t>
+          <t>37,45; 74,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,25; 42,87</t>
+          <t>7,4; 43,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,86</t>
+          <t>4,33; 8,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,72</t>
+          <t>9,12; 13,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,9</t>
+          <t>-0,42; 9,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,74</t>
+          <t>1,32; 4,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,4</t>
+          <t>4,81; 8,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,87</t>
+          <t>4,16; 9,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,16</t>
+          <t>3,27; 6,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,39</t>
+          <t>7,6; 10,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,03</t>
+          <t>3,8; 8,84</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,46; 44,61</t>
+          <t>20,02; 43,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>42,03; 68,57</t>
+          <t>41,62; 69,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 43,96</t>
+          <t>-1,05; 45,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,34; 42,64</t>
+          <t>10,48; 41,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>38,28; 75,97</t>
+          <t>37,28; 73,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>34,08; 86,96</t>
+          <t>33,86; 88,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,96; 39,27</t>
+          <t>19,14; 38,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>43,92; 67,32</t>
+          <t>44,28; 66,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,17; 57,0</t>
+          <t>22,94; 55,89</t>
         </is>
       </c>
     </row>
